--- a/PhD/Exacto/2023/2023-112/Data Sheet_2023-112.xlsx
+++ b/PhD/Exacto/2023/2023-112/Data Sheet_2023-112.xlsx
@@ -5,19 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/PhD - UW/RESEARCH PROJECTS/Exacto/2023/2023-112/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/GitHub/FFaleco/PhD/Exacto/2023/2023-112/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="148" documentId="6_{0FF0DAF5-EDF2-4A8A-B586-BB56106B5975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E6F1C48-E2D5-49A0-A591-35260F5159B9}"/>
+  <xr:revisionPtr revIDLastSave="182" documentId="6_{0FF0DAF5-EDF2-4A8A-B586-BB56106B5975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E540FBE-49CF-4DC7-B0CB-DC7B03415C91}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{45CE7502-F53B-408A-B31B-9923588C4F09}"/>
   </bookViews>
   <sheets>
     <sheet name="1st Run" sheetId="1" r:id="rId1"/>
-    <sheet name="Schedule" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1st Run'!$A$1:$K$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1st Run'!$A$1:$K$145</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="34">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="15">
   <si>
     <t>trt</t>
   </si>
@@ -72,25 +68,7 @@
     <t>A90</t>
   </si>
   <si>
-    <t>0x</t>
-  </si>
-  <si>
     <t>ve_21dat</t>
-  </si>
-  <si>
-    <t>0.125x</t>
-  </si>
-  <si>
-    <t>0.25x</t>
-  </si>
-  <si>
-    <t>0.5x</t>
-  </si>
-  <si>
-    <t>1x</t>
-  </si>
-  <si>
-    <t>2x</t>
   </si>
   <si>
     <t>reflex</t>
@@ -102,46 +80,10 @@
     <t>A92</t>
   </si>
   <si>
-    <t>Activity</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>1st Run (GH20)</t>
-  </si>
-  <si>
-    <t>Plant</t>
-  </si>
-  <si>
-    <t>Emergence</t>
-  </si>
-  <si>
-    <t>Transplant</t>
-  </si>
-  <si>
-    <t>Spray</t>
-  </si>
-  <si>
-    <t>VE &amp; Photos_7 DAT</t>
-  </si>
-  <si>
-    <t>VE &amp; Photos_14 DAT</t>
-  </si>
-  <si>
-    <t>VE &amp; Photos_21 DAT</t>
-  </si>
-  <si>
-    <t>Survival</t>
-  </si>
-  <si>
-    <t>Biomass</t>
-  </si>
-  <si>
     <t>surv</t>
   </si>
   <si>
-    <t>Harvest</t>
+    <t>run</t>
   </si>
 </sst>
 </file>
@@ -200,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -209,12 +151,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -232,10 +168,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -535,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA789018-4874-4129-A8DC-B9ED10D57DE1}">
-  <dimension ref="A1:K133"/>
+  <dimension ref="A1:K145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,37 +490,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -599,11 +531,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -626,17 +560,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
       </c>
       <c r="F3" s="3">
         <v>2</v>
@@ -659,17 +595,19 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
       </c>
       <c r="F4" s="3">
         <v>3</v>
@@ -692,17 +630,19 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
       </c>
       <c r="F5" s="3">
         <v>4</v>
@@ -725,17 +665,19 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
       </c>
       <c r="F6" s="3">
         <v>5</v>
@@ -758,17 +700,19 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
       </c>
       <c r="F7" s="3">
         <v>6</v>
@@ -791,19 +735,19 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B8" s="3">
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E8" s="3">
+        <v>35</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -826,19 +770,19 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B9" s="3">
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E9" s="3">
+        <v>35</v>
       </c>
       <c r="F9" s="3">
         <v>2</v>
@@ -861,19 +805,19 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B10" s="3">
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E10" s="3">
+        <v>35</v>
       </c>
       <c r="F10" s="3">
         <v>3</v>
@@ -896,19 +840,19 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B11" s="3">
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E11" s="3">
+        <v>35</v>
       </c>
       <c r="F11" s="3">
         <v>4</v>
@@ -931,19 +875,19 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B12" s="3">
         <v>2</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E12" s="3">
+        <v>35</v>
       </c>
       <c r="F12" s="3">
         <v>5</v>
@@ -966,19 +910,19 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B13" s="3">
         <v>2</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E13" s="3">
+        <v>35</v>
       </c>
       <c r="F13" s="3">
         <v>6</v>
@@ -1001,19 +945,19 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B14" s="3">
         <v>3</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="E14" s="3">
+        <v>70</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -1036,19 +980,19 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B15" s="3">
         <v>3</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="E15" s="3">
+        <v>70</v>
       </c>
       <c r="F15" s="3">
         <v>2</v>
@@ -1071,19 +1015,19 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B16" s="3">
         <v>3</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="E16" s="3">
+        <v>70</v>
       </c>
       <c r="F16" s="3">
         <v>3</v>
@@ -1106,19 +1050,19 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B17" s="3">
         <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="E17" s="3">
+        <v>70</v>
       </c>
       <c r="F17" s="3">
         <v>4</v>
@@ -1141,19 +1085,19 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B18" s="3">
         <v>3</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="E18" s="3">
+        <v>70</v>
       </c>
       <c r="F18" s="3">
         <v>5</v>
@@ -1176,19 +1120,19 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B19" s="3">
         <v>3</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="E19" s="3">
+        <v>70</v>
       </c>
       <c r="F19" s="3">
         <v>6</v>
@@ -1211,19 +1155,19 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B20" s="3">
         <v>4</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="E20" s="3">
+        <v>140</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
@@ -1246,19 +1190,19 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B21" s="3">
         <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="E21" s="3">
+        <v>140</v>
       </c>
       <c r="F21" s="3">
         <v>2</v>
@@ -1281,19 +1225,19 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B22" s="3">
         <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="E22" s="3">
+        <v>140</v>
       </c>
       <c r="F22" s="3">
         <v>3</v>
@@ -1316,19 +1260,19 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B23" s="3">
         <v>4</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="E23" s="3">
+        <v>140</v>
       </c>
       <c r="F23" s="3">
         <v>4</v>
@@ -1351,19 +1295,19 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B24" s="3">
         <v>4</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="E24" s="3">
+        <v>140</v>
       </c>
       <c r="F24" s="3">
         <v>5</v>
@@ -1386,19 +1330,19 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B25" s="3">
         <v>4</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="E25" s="3">
+        <v>140</v>
       </c>
       <c r="F25" s="3">
         <v>6</v>
@@ -1421,19 +1365,19 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B26" s="3">
         <v>5</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="E26" s="3">
+        <v>280</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>
@@ -1456,19 +1400,19 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B27" s="3">
         <v>5</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="E27" s="3">
+        <v>280</v>
       </c>
       <c r="F27" s="3">
         <v>2</v>
@@ -1491,19 +1435,19 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B28" s="3">
         <v>5</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="E28" s="3">
+        <v>280</v>
       </c>
       <c r="F28" s="3">
         <v>3</v>
@@ -1526,19 +1470,19 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B29" s="3">
         <v>5</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="E29" s="3">
+        <v>280</v>
       </c>
       <c r="F29" s="3">
         <v>4</v>
@@ -1561,19 +1505,19 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B30" s="3">
         <v>5</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="E30" s="3">
+        <v>280</v>
       </c>
       <c r="F30" s="3">
         <v>5</v>
@@ -1596,19 +1540,19 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B31" s="3">
         <v>5</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="E31" s="3">
+        <v>280</v>
       </c>
       <c r="F31" s="3">
         <v>6</v>
@@ -1631,19 +1575,19 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B32" s="3">
         <v>6</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="E32" s="3">
+        <v>560</v>
       </c>
       <c r="F32" s="3">
         <v>1</v>
@@ -1666,19 +1610,19 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B33" s="3">
         <v>6</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="E33" s="3">
+        <v>560</v>
       </c>
       <c r="F33" s="3">
         <v>2</v>
@@ -1701,19 +1645,19 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="B34" s="3">
         <v>6</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="E34" s="3">
+        <v>560</v>
       </c>
       <c r="F34" s="3">
         <v>3</v>
@@ -1736,19 +1680,19 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="B35" s="3">
         <v>6</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="E35" s="3">
+        <v>560</v>
       </c>
       <c r="F35" s="3">
         <v>4</v>
@@ -1771,19 +1715,19 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B36" s="3">
         <v>6</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="E36" s="3">
+        <v>560</v>
       </c>
       <c r="F36" s="3">
         <v>5</v>
@@ -1806,19 +1750,19 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B37" s="3">
         <v>6</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="E37" s="3">
+        <v>560</v>
       </c>
       <c r="F37" s="3">
         <v>6</v>
@@ -1841,684 +1785,684 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
       </c>
       <c r="F38" s="3">
         <v>1</v>
       </c>
       <c r="G38" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H38" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I38" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J38" s="3">
         <v>1</v>
       </c>
       <c r="K38" s="3">
-        <v>2.8919999999999999</v>
+        <v>4.2930000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B39" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
       </c>
       <c r="F39" s="3">
         <v>2</v>
       </c>
       <c r="G39" s="3">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="H39" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I39" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J39" s="3">
         <v>1</v>
       </c>
       <c r="K39" s="3">
-        <v>1.9850000000000001</v>
+        <v>1.889</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="B40" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
       </c>
       <c r="F40" s="3">
         <v>3</v>
       </c>
       <c r="G40" s="3">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H40" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I40" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J40" s="3">
         <v>1</v>
       </c>
       <c r="K40" s="3">
-        <v>2.3769999999999998</v>
+        <v>3.4580000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="B41" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>4</v>
       </c>
       <c r="G41" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>1</v>
       </c>
       <c r="K41" s="3">
-        <v>3.3620000000000001</v>
+        <v>2.331</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="B42" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
       </c>
       <c r="F42" s="3">
         <v>5</v>
       </c>
       <c r="G42" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
         <v>1</v>
       </c>
       <c r="K42" s="3">
-        <v>2.83</v>
+        <v>3.1640000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="B43" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>6</v>
       </c>
       <c r="G43" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>1</v>
       </c>
       <c r="K43" s="3">
-        <v>3.19</v>
+        <v>4.5529999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="B44" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="E44" s="3">
+        <v>35</v>
       </c>
       <c r="F44" s="3">
         <v>1</v>
       </c>
       <c r="G44" s="3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H44" s="3">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I44" s="3">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="J44" s="3">
         <v>1</v>
       </c>
       <c r="K44" s="3">
-        <v>1.9930000000000001</v>
+        <v>2.8919999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="B45" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="E45" s="3">
+        <v>35</v>
       </c>
       <c r="F45" s="3">
         <v>2</v>
       </c>
       <c r="G45" s="3">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H45" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I45" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J45" s="3">
         <v>1</v>
       </c>
       <c r="K45" s="3">
-        <v>1.9259999999999999</v>
+        <v>1.9850000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="B46" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="E46" s="3">
+        <v>35</v>
       </c>
       <c r="F46" s="3">
         <v>3</v>
       </c>
       <c r="G46" s="3">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="H46" s="3">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="I46" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J46" s="3">
         <v>1</v>
       </c>
       <c r="K46" s="3">
-        <v>1.6919999999999999</v>
+        <v>2.3769999999999998</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="B47" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="E47" s="3">
+        <v>35</v>
       </c>
       <c r="F47" s="3">
         <v>4</v>
       </c>
       <c r="G47" s="3">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="H47" s="3">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="I47" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J47" s="3">
         <v>1</v>
       </c>
       <c r="K47" s="3">
-        <v>2.6349999999999998</v>
+        <v>3.3620000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="B48" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="E48" s="3">
+        <v>35</v>
       </c>
       <c r="F48" s="3">
         <v>5</v>
       </c>
       <c r="G48" s="3">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H48" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I48" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J48" s="3">
         <v>1</v>
       </c>
       <c r="K48" s="3">
-        <v>2.6789999999999998</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="B49" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="E49" s="3">
+        <v>35</v>
       </c>
       <c r="F49" s="3">
         <v>6</v>
       </c>
       <c r="G49" s="3">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="H49" s="3">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="I49" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J49" s="3">
         <v>1</v>
       </c>
       <c r="K49" s="3">
-        <v>1.6020000000000001</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="B50" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="E50" s="3">
+        <v>70</v>
       </c>
       <c r="F50" s="3">
         <v>1</v>
       </c>
       <c r="G50" s="3">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H50" s="3">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="I50" s="3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J50" s="3">
         <v>1</v>
       </c>
       <c r="K50" s="3">
-        <v>0.76500000000000001</v>
+        <v>1.9930000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="B51" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="E51" s="3">
+        <v>70</v>
       </c>
       <c r="F51" s="3">
         <v>2</v>
       </c>
       <c r="G51" s="3">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="H51" s="3">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="I51" s="3">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="J51" s="3">
         <v>1</v>
       </c>
       <c r="K51" s="3">
-        <v>0.14899999999999999</v>
+        <v>1.9259999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="B52" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="E52" s="3">
+        <v>70</v>
       </c>
       <c r="F52" s="3">
         <v>3</v>
       </c>
       <c r="G52" s="3">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="H52" s="3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I52" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J52" s="3">
         <v>1</v>
       </c>
       <c r="K52" s="3">
-        <v>2.6850000000000001</v>
+        <v>1.6919999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="B53" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="E53" s="3">
+        <v>70</v>
       </c>
       <c r="F53" s="3">
         <v>4</v>
       </c>
       <c r="G53" s="3">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H53" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I53" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J53" s="3">
         <v>1</v>
       </c>
       <c r="K53" s="3">
-        <v>1.9530000000000001</v>
+        <v>2.6349999999999998</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B54" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="E54" s="3">
+        <v>70</v>
       </c>
       <c r="F54" s="3">
         <v>5</v>
       </c>
       <c r="G54" s="3">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="H54" s="3">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="I54" s="3">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="J54" s="3">
         <v>1</v>
       </c>
       <c r="K54" s="3">
-        <v>0.122</v>
+        <v>2.6789999999999998</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="B55" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="E55" s="3">
+        <v>70</v>
       </c>
       <c r="F55" s="3">
         <v>6</v>
       </c>
       <c r="G55" s="3">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H55" s="3">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="I55" s="3">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="J55" s="3">
         <v>1</v>
       </c>
       <c r="K55" s="3">
-        <v>0.30199999999999999</v>
+        <v>1.6020000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="B56" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="E56" s="3">
+        <v>140</v>
       </c>
       <c r="F56" s="3">
         <v>1</v>
       </c>
       <c r="G56" s="3">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H56" s="3">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I56" s="3">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="J56" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" s="3">
-        <v>0</v>
+        <v>0.76500000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="B57" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="E57" s="3">
+        <v>140</v>
       </c>
       <c r="F57" s="3">
         <v>2</v>
@@ -2527,103 +2471,103 @@
         <v>95</v>
       </c>
       <c r="H57" s="3">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I57" s="3">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J57" s="3">
         <v>1</v>
       </c>
       <c r="K57" s="3">
-        <v>0.42499999999999999</v>
+        <v>0.14899999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="B58" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="E58" s="3">
+        <v>140</v>
       </c>
       <c r="F58" s="3">
         <v>3</v>
       </c>
       <c r="G58" s="3">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="H58" s="3">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="I58" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J58" s="3">
         <v>1</v>
       </c>
       <c r="K58" s="3">
-        <v>1.0669999999999999</v>
+        <v>2.6850000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="B59" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="E59" s="3">
+        <v>140</v>
       </c>
       <c r="F59" s="3">
         <v>4</v>
       </c>
       <c r="G59" s="3">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="H59" s="3">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="I59" s="3">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="J59" s="3">
         <v>1</v>
       </c>
       <c r="K59" s="3">
-        <v>0.55300000000000005</v>
+        <v>1.9530000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="B60" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="E60" s="3">
+        <v>140</v>
       </c>
       <c r="F60" s="3">
         <v>5</v>
@@ -2641,59 +2585,59 @@
         <v>1</v>
       </c>
       <c r="K60" s="3">
-        <v>4.3999999999999997E-2</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="B61" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="E61" s="3">
+        <v>140</v>
       </c>
       <c r="F61" s="3">
         <v>6</v>
       </c>
       <c r="G61" s="3">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H61" s="3">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I61" s="3">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>0.30199999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="B62" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="E62" s="3">
+        <v>280</v>
       </c>
       <c r="F62" s="3">
         <v>1</v>
@@ -2716,159 +2660,159 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="B63" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="E63" s="3">
+        <v>280</v>
       </c>
       <c r="F63" s="3">
         <v>2</v>
       </c>
       <c r="G63" s="3">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H63" s="3">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="I63" s="3">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="J63" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" s="3">
-        <v>0</v>
+        <v>0.42499999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="B64" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="E64" s="3">
+        <v>280</v>
       </c>
       <c r="F64" s="3">
         <v>3</v>
       </c>
       <c r="G64" s="3">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H64" s="3">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I64" s="3">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="J64" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" s="3">
-        <v>0</v>
+        <v>1.0669999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="B65" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="E65" s="3">
+        <v>280</v>
       </c>
       <c r="F65" s="3">
         <v>4</v>
       </c>
       <c r="G65" s="3">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H65" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I65" s="3">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="J65" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" s="3">
-        <v>0</v>
+        <v>0.55300000000000005</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="B66" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="E66" s="3">
+        <v>280</v>
       </c>
       <c r="F66" s="3">
         <v>5</v>
       </c>
       <c r="G66" s="3">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H66" s="3">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I66" s="3">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J66" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" s="3">
-        <v>0</v>
+        <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B67" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="E67" s="3">
+        <v>280</v>
       </c>
       <c r="F67" s="3">
         <v>6</v>
@@ -2891,471 +2835,483 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="B68" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="3">
+        <v>560</v>
       </c>
       <c r="F68" s="3">
         <v>1</v>
       </c>
       <c r="G68" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H68" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I68" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J68" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" s="3">
-        <v>3.4689999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="B69" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="3">
+        <v>560</v>
       </c>
       <c r="F69" s="3">
         <v>2</v>
       </c>
       <c r="G69" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H69" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I69" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J69" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" s="3">
-        <v>3.371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="B70" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="3">
+        <v>560</v>
       </c>
       <c r="F70" s="3">
         <v>3</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J70" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
-        <v>3.1309999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="B71" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="3">
+        <v>560</v>
       </c>
       <c r="F71" s="3">
         <v>4</v>
       </c>
       <c r="G71" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H71" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I71" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J71" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" s="3">
-        <v>2.8050000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="B72" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="3">
+        <v>560</v>
       </c>
       <c r="F72" s="3">
         <v>5</v>
       </c>
       <c r="G72" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H72" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I72" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J72" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" s="3">
-        <v>2.8410000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="B73" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="3">
+        <v>560</v>
       </c>
       <c r="F73" s="3">
         <v>6</v>
       </c>
       <c r="G73" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H73" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I73" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J73" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" s="3">
-        <v>3.097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="B74" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E74" s="3">
+        <v>0</v>
       </c>
       <c r="F74" s="3">
         <v>1</v>
       </c>
       <c r="G74" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H74" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I74" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J74" s="3">
         <v>1</v>
       </c>
       <c r="K74" s="3">
-        <v>2.9980000000000002</v>
+        <v>3.4689999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="B75" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0</v>
       </c>
       <c r="F75" s="3">
         <v>2</v>
       </c>
       <c r="G75" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H75" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I75" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J75" s="3">
         <v>1</v>
       </c>
       <c r="K75" s="3">
-        <v>2.145</v>
+        <v>3.371</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="B76" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0</v>
       </c>
       <c r="F76" s="3">
         <v>3</v>
       </c>
       <c r="G76" s="3">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H76" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I76" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J76" s="3">
         <v>1</v>
       </c>
       <c r="K76" s="3">
-        <v>3.2029999999999998</v>
+        <v>3.1309999999999998</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="B77" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0</v>
       </c>
       <c r="F77" s="3">
         <v>4</v>
       </c>
       <c r="G77" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H77" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I77" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J77" s="3">
         <v>1</v>
       </c>
       <c r="K77" s="3">
-        <v>3.0870000000000002</v>
+        <v>2.8050000000000002</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="B78" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0</v>
       </c>
       <c r="F78" s="3">
         <v>5</v>
       </c>
       <c r="G78" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H78" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I78" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J78" s="3">
         <v>1</v>
       </c>
       <c r="K78" s="3">
-        <v>3.2410000000000001</v>
+        <v>2.8410000000000002</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="B79" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0</v>
       </c>
       <c r="F79" s="3">
         <v>6</v>
       </c>
       <c r="G79" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H79" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I79" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J79" s="3">
         <v>1</v>
       </c>
       <c r="K79" s="3">
-        <v>2.39</v>
+        <v>3.097</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="B80" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="E80" s="3">
+        <v>35</v>
       </c>
       <c r="F80" s="3">
         <v>1</v>
       </c>
       <c r="G80" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H80" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I80" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J80" s="3">
         <v>1</v>
       </c>
       <c r="K80" s="3">
-        <v>1.855</v>
+        <v>2.9980000000000002</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="B81" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="E81" s="3">
+        <v>35</v>
       </c>
       <c r="F81" s="3">
         <v>2</v>
       </c>
       <c r="G81" s="3">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H81" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I81" s="3">
         <v>15</v>
@@ -3364,33 +3320,33 @@
         <v>1</v>
       </c>
       <c r="K81" s="3">
-        <v>3.1789999999999998</v>
+        <v>2.145</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="B82" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="E82" s="3">
+        <v>35</v>
       </c>
       <c r="F82" s="3">
         <v>3</v>
       </c>
       <c r="G82" s="3">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="H82" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I82" s="3">
         <v>15</v>
@@ -3399,205 +3355,205 @@
         <v>1</v>
       </c>
       <c r="K82" s="3">
-        <v>2.5880000000000001</v>
+        <v>3.2029999999999998</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="B83" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="E83" s="3">
+        <v>35</v>
       </c>
       <c r="F83" s="3">
         <v>4</v>
       </c>
       <c r="G83" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H83" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I83" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J83" s="3">
         <v>1</v>
       </c>
       <c r="K83" s="3">
-        <v>3.1909999999999998</v>
+        <v>3.0870000000000002</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="B84" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="E84" s="3">
+        <v>35</v>
       </c>
       <c r="F84" s="3">
         <v>5</v>
       </c>
       <c r="G84" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H84" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I84" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J84" s="3">
         <v>1</v>
       </c>
       <c r="K84" s="3">
-        <v>2.6030000000000002</v>
+        <v>3.2410000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="B85" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="E85" s="3">
+        <v>35</v>
       </c>
       <c r="F85" s="3">
         <v>6</v>
       </c>
       <c r="G85" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H85" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I85" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J85" s="3">
         <v>1</v>
       </c>
       <c r="K85" s="3">
-        <v>2.306</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="B86" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="E86" s="3">
+        <v>70</v>
       </c>
       <c r="F86" s="3">
         <v>1</v>
       </c>
       <c r="G86" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H86" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I86" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J86" s="3">
         <v>1</v>
       </c>
       <c r="K86" s="3">
-        <v>4.7380000000000004</v>
+        <v>1.855</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="B87" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="E87" s="3">
+        <v>70</v>
       </c>
       <c r="F87" s="3">
         <v>2</v>
       </c>
       <c r="G87" s="3">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="H87" s="3">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I87" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J87" s="3">
         <v>1</v>
       </c>
       <c r="K87" s="3">
-        <v>2.7490000000000001</v>
+        <v>3.1789999999999998</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="B88" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="E88" s="3">
+        <v>70</v>
       </c>
       <c r="F88" s="3">
         <v>3</v>
       </c>
       <c r="G88" s="3">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H88" s="3">
         <v>20</v>
@@ -3609,68 +3565,68 @@
         <v>1</v>
       </c>
       <c r="K88" s="3">
-        <v>1.851</v>
+        <v>2.5880000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="B89" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="E89" s="3">
+        <v>70</v>
       </c>
       <c r="F89" s="3">
         <v>4</v>
       </c>
       <c r="G89" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H89" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I89" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J89" s="3">
         <v>1</v>
       </c>
       <c r="K89" s="3">
-        <v>3.101</v>
+        <v>3.1909999999999998</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="B90" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="E90" s="3">
+        <v>70</v>
       </c>
       <c r="F90" s="3">
         <v>5</v>
       </c>
       <c r="G90" s="3">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H90" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I90" s="3">
         <v>20</v>
@@ -3679,138 +3635,138 @@
         <v>1</v>
       </c>
       <c r="K90" s="3">
-        <v>3.7050000000000001</v>
+        <v>2.6030000000000002</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="B91" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="E91" s="3">
+        <v>70</v>
       </c>
       <c r="F91" s="3">
         <v>6</v>
       </c>
       <c r="G91" s="3">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="H91" s="3">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="I91" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J91" s="3">
         <v>1</v>
       </c>
       <c r="K91" s="3">
-        <v>1.3049999999999999</v>
+        <v>2.306</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="B92" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="E92" s="3">
+        <v>140</v>
       </c>
       <c r="F92" s="3">
         <v>1</v>
       </c>
       <c r="G92" s="3">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="H92" s="3">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I92" s="3">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="J92" s="3">
         <v>1</v>
       </c>
       <c r="K92" s="3">
-        <v>2.5030000000000001</v>
+        <v>4.7380000000000004</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="B93" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="E93" s="3">
+        <v>140</v>
       </c>
       <c r="F93" s="3">
         <v>2</v>
       </c>
       <c r="G93" s="3">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H93" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I93" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J93" s="3">
         <v>1</v>
       </c>
       <c r="K93" s="3">
-        <v>0.85699999999999998</v>
+        <v>2.7490000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="B94" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="E94" s="3">
+        <v>140</v>
       </c>
       <c r="F94" s="3">
         <v>3</v>
       </c>
       <c r="G94" s="3">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H94" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I94" s="3">
         <v>15</v>
@@ -3819,24 +3775,24 @@
         <v>1</v>
       </c>
       <c r="K94" s="3">
-        <v>2.37</v>
+        <v>1.851</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="B95" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="E95" s="3">
+        <v>140</v>
       </c>
       <c r="F95" s="3">
         <v>4</v>
@@ -3845,138 +3801,138 @@
         <v>50</v>
       </c>
       <c r="H95" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I95" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J95" s="3">
         <v>1</v>
       </c>
       <c r="K95" s="3">
-        <v>3.0529999999999999</v>
+        <v>3.101</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="B96" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="E96" s="3">
+        <v>140</v>
       </c>
       <c r="F96" s="3">
         <v>5</v>
       </c>
       <c r="G96" s="3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H96" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I96" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J96" s="3">
         <v>1</v>
       </c>
       <c r="K96" s="3">
-        <v>2.0960000000000001</v>
+        <v>3.7050000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="B97" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="E97" s="3">
+        <v>140</v>
       </c>
       <c r="F97" s="3">
         <v>6</v>
       </c>
       <c r="G97" s="3">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="H97" s="3">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="I97" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J97" s="3">
         <v>1</v>
       </c>
       <c r="K97" s="3">
-        <v>3.3039999999999998</v>
+        <v>1.3049999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="B98" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="E98" s="3">
+        <v>280</v>
       </c>
       <c r="F98" s="3">
         <v>1</v>
       </c>
       <c r="G98" s="3">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="H98" s="3">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I98" s="3">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="J98" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K98" s="3">
-        <v>0</v>
+        <v>2.5030000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="B99" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="E99" s="3">
+        <v>280</v>
       </c>
       <c r="F99" s="3">
         <v>2</v>
@@ -3985,42 +3941,42 @@
         <v>50</v>
       </c>
       <c r="H99" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I99" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J99" s="3">
         <v>1</v>
       </c>
       <c r="K99" s="3">
-        <v>1.74</v>
+        <v>0.85699999999999998</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="B100" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="E100" s="3">
+        <v>280</v>
       </c>
       <c r="F100" s="3">
         <v>3</v>
       </c>
       <c r="G100" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H100" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I100" s="3">
         <v>15</v>
@@ -4029,68 +3985,68 @@
         <v>1</v>
       </c>
       <c r="K100" s="3">
-        <v>2.718</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="B101" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="E101" s="3">
+        <v>280</v>
       </c>
       <c r="F101" s="3">
         <v>4</v>
       </c>
       <c r="G101" s="3">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H101" s="3">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I101" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J101" s="3">
         <v>1</v>
       </c>
       <c r="K101" s="3">
-        <v>3.1739999999999999</v>
+        <v>3.0529999999999999</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="B102" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="E102" s="3">
+        <v>280</v>
       </c>
       <c r="F102" s="3">
         <v>5</v>
       </c>
       <c r="G102" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H102" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I102" s="3">
         <v>15</v>
@@ -4099,30 +4055,30 @@
         <v>1</v>
       </c>
       <c r="K102" s="3">
-        <v>1.6339999999999999</v>
+        <v>2.0960000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="B103" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="E103" s="3">
+        <v>280</v>
       </c>
       <c r="F103" s="3">
         <v>6</v>
       </c>
       <c r="G103" s="3">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H103" s="3">
         <v>10</v>
@@ -4134,68 +4090,68 @@
         <v>1</v>
       </c>
       <c r="K103" s="3">
-        <v>5.5270000000000001</v>
+        <v>3.3039999999999998</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="B104" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E104" s="3">
+        <v>560</v>
       </c>
       <c r="F104" s="3">
         <v>1</v>
       </c>
       <c r="G104" s="3">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="H104" s="3">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="I104" s="3">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="J104" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K104" s="3">
-        <v>3.077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="B105" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E105" s="3">
+        <v>560</v>
       </c>
       <c r="F105" s="3">
         <v>2</v>
       </c>
       <c r="G105" s="3">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="H105" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I105" s="3">
         <v>20</v>
@@ -4204,558 +4160,558 @@
         <v>1</v>
       </c>
       <c r="K105" s="3">
-        <v>1.9650000000000001</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="B106" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E106" s="3">
+        <v>560</v>
       </c>
       <c r="F106" s="3">
         <v>3</v>
       </c>
       <c r="G106" s="3">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="H106" s="3">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I106" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J106" s="3">
         <v>1</v>
       </c>
       <c r="K106" s="3">
-        <v>3.0950000000000002</v>
+        <v>2.718</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="B107" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E107" s="3">
+        <v>560</v>
       </c>
       <c r="F107" s="3">
         <v>4</v>
       </c>
       <c r="G107" s="3">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H107" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I107" s="3">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J107" s="3">
         <v>1</v>
       </c>
       <c r="K107" s="3">
-        <v>2.827</v>
+        <v>3.1739999999999999</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
-        <v>107</v>
+        <v>1</v>
       </c>
       <c r="B108" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E108" s="3">
+        <v>560</v>
       </c>
       <c r="F108" s="3">
         <v>5</v>
       </c>
       <c r="G108" s="3">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H108" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I108" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J108" s="3">
         <v>1</v>
       </c>
       <c r="K108" s="3">
-        <v>2.278</v>
+        <v>1.6339999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
-        <v>108</v>
+        <v>1</v>
       </c>
       <c r="B109" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E109" s="3">
+        <v>560</v>
       </c>
       <c r="F109" s="3">
         <v>6</v>
       </c>
       <c r="G109" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H109" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I109" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J109" s="3">
         <v>1</v>
       </c>
       <c r="K109" s="3">
-        <v>1.855</v>
+        <v>5.5270000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
-        <v>109</v>
+        <v>1</v>
       </c>
       <c r="B110" s="3">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="E110" s="3">
+        <v>0</v>
       </c>
       <c r="F110" s="3">
         <v>1</v>
       </c>
       <c r="G110" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H110" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I110" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J110" s="3">
         <v>1</v>
       </c>
       <c r="K110" s="3">
-        <v>2.109</v>
+        <v>3.4689999999999999</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="B111" s="3">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="E111" s="3">
+        <v>0</v>
       </c>
       <c r="F111" s="3">
         <v>2</v>
       </c>
       <c r="G111" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H111" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I111" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J111" s="3">
         <v>1</v>
       </c>
       <c r="K111" s="3">
-        <v>2.7690000000000001</v>
+        <v>3.371</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="B112" s="3">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="E112" s="3">
+        <v>0</v>
       </c>
       <c r="F112" s="3">
         <v>3</v>
       </c>
       <c r="G112" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H112" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I112" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J112" s="3">
         <v>1</v>
       </c>
       <c r="K112" s="3">
-        <v>2.33</v>
+        <v>3.1309999999999998</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="B113" s="3">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="E113" s="3">
+        <v>0</v>
       </c>
       <c r="F113" s="3">
         <v>4</v>
       </c>
       <c r="G113" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H113" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I113" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J113" s="3">
         <v>1</v>
       </c>
       <c r="K113" s="3">
-        <v>3.4729999999999999</v>
+        <v>2.8050000000000002</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
-        <v>113</v>
+        <v>1</v>
       </c>
       <c r="B114" s="3">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="E114" s="3">
+        <v>0</v>
       </c>
       <c r="F114" s="3">
         <v>5</v>
       </c>
       <c r="G114" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H114" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I114" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J114" s="3">
         <v>1</v>
       </c>
       <c r="K114" s="3">
-        <v>2.649</v>
+        <v>2.8410000000000002</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="B115" s="3">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="E115" s="3">
+        <v>0</v>
       </c>
       <c r="F115" s="3">
         <v>6</v>
       </c>
       <c r="G115" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H115" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I115" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J115" s="3">
         <v>1</v>
       </c>
       <c r="K115" s="3">
-        <v>1.8140000000000001</v>
+        <v>3.097</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="B116" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="E116" s="3">
+        <v>35</v>
       </c>
       <c r="F116" s="3">
         <v>1</v>
       </c>
       <c r="G116" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H116" s="3">
         <v>15</v>
       </c>
       <c r="I116" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J116" s="3">
         <v>1</v>
       </c>
       <c r="K116" s="3">
-        <v>2.1850000000000001</v>
+        <v>3.077</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="B117" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="E117" s="3">
+        <v>35</v>
       </c>
       <c r="F117" s="3">
         <v>2</v>
       </c>
       <c r="G117" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H117" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I117" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J117" s="3">
         <v>1</v>
       </c>
       <c r="K117" s="3">
-        <v>2.37</v>
+        <v>1.9650000000000001</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="B118" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="E118" s="3">
+        <v>35</v>
       </c>
       <c r="F118" s="3">
         <v>3</v>
       </c>
       <c r="G118" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H118" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I118" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J118" s="3">
         <v>1</v>
       </c>
       <c r="K118" s="3">
-        <v>1.893</v>
+        <v>3.0950000000000002</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
-        <v>118</v>
+        <v>1</v>
       </c>
       <c r="B119" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="E119" s="3">
+        <v>35</v>
       </c>
       <c r="F119" s="3">
         <v>4</v>
       </c>
       <c r="G119" s="3">
+        <v>20</v>
+      </c>
+      <c r="H119" s="3">
         <v>30</v>
       </c>
-      <c r="H119" s="3">
-        <v>20</v>
-      </c>
       <c r="I119" s="3">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J119" s="3">
         <v>1</v>
       </c>
       <c r="K119" s="3">
-        <v>3.052</v>
+        <v>2.827</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="B120" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="E120" s="3">
+        <v>35</v>
       </c>
       <c r="F120" s="3">
         <v>5</v>
       </c>
       <c r="G120" s="3">
+        <v>15</v>
+      </c>
+      <c r="H120" s="3">
         <v>30</v>
       </c>
-      <c r="H120" s="3">
-        <v>20</v>
-      </c>
       <c r="I120" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J120" s="3">
         <v>1</v>
       </c>
       <c r="K120" s="3">
-        <v>3.9630000000000001</v>
+        <v>2.278</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="B121" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="E121" s="3">
+        <v>35</v>
       </c>
       <c r="F121" s="3">
         <v>6</v>
       </c>
       <c r="G121" s="3">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H121" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I121" s="3">
         <v>15</v>
@@ -4764,24 +4720,24 @@
         <v>1</v>
       </c>
       <c r="K121" s="3">
-        <v>2.15</v>
+        <v>1.855</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B122" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="E122" s="3">
+        <v>70</v>
       </c>
       <c r="F122" s="3">
         <v>1</v>
@@ -4790,74 +4746,74 @@
         <v>30</v>
       </c>
       <c r="H122" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I122" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J122" s="3">
         <v>1</v>
       </c>
       <c r="K122" s="3">
-        <v>2.5830000000000002</v>
+        <v>2.109</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
-        <v>122</v>
+        <v>1</v>
       </c>
       <c r="B123" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="E123" s="3">
+        <v>70</v>
       </c>
       <c r="F123" s="3">
         <v>2</v>
       </c>
       <c r="G123" s="3">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H123" s="3">
         <v>30</v>
       </c>
       <c r="I123" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J123" s="3">
         <v>1</v>
       </c>
       <c r="K123" s="3">
-        <v>2.867</v>
+        <v>2.7690000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="B124" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="E124" s="3">
+        <v>70</v>
       </c>
       <c r="F124" s="3">
         <v>3</v>
       </c>
       <c r="G124" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H124" s="3">
         <v>30</v>
@@ -4869,69 +4825,69 @@
         <v>1</v>
       </c>
       <c r="K124" s="3">
-        <v>1.764</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
-        <v>124</v>
+        <v>1</v>
       </c>
       <c r="B125" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="E125" s="3">
+        <v>70</v>
       </c>
       <c r="F125" s="3">
         <v>4</v>
       </c>
       <c r="G125" s="3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H125" s="3">
         <v>20</v>
       </c>
       <c r="I125" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J125" s="3">
         <v>1</v>
       </c>
       <c r="K125" s="3">
-        <v>2.016</v>
+        <v>3.4729999999999999</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
-        <v>125</v>
+        <v>1</v>
       </c>
       <c r="B126" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="E126" s="3">
+        <v>70</v>
       </c>
       <c r="F126" s="3">
         <v>5</v>
       </c>
       <c r="G126" s="3">
+        <v>30</v>
+      </c>
+      <c r="H126" s="3">
         <v>25</v>
       </c>
-      <c r="H126" s="3">
-        <v>30</v>
-      </c>
       <c r="I126" s="3">
         <v>20</v>
       </c>
@@ -4939,24 +4895,24 @@
         <v>1</v>
       </c>
       <c r="K126" s="3">
-        <v>2.9590000000000001</v>
+        <v>2.649</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
-        <v>126</v>
+        <v>1</v>
       </c>
       <c r="B127" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="E127" s="3">
+        <v>70</v>
       </c>
       <c r="F127" s="3">
         <v>6</v>
@@ -4965,343 +4921,650 @@
         <v>30</v>
       </c>
       <c r="H127" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I127" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J127" s="3">
         <v>1</v>
       </c>
       <c r="K127" s="3">
-        <v>2.0030000000000001</v>
+        <v>1.8140000000000001</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
-        <v>127</v>
+        <v>1</v>
       </c>
       <c r="B128" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="E128" s="3">
+        <v>140</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
       </c>
       <c r="G128" s="3">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="H128" s="3">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="I128" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J128" s="3">
         <v>1</v>
       </c>
       <c r="K128" s="3">
-        <v>0.73599999999999999</v>
+        <v>2.1850000000000001</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="B129" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="E129" s="3">
+        <v>140</v>
       </c>
       <c r="F129" s="3">
         <v>2</v>
       </c>
       <c r="G129" s="3">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H129" s="3">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="I129" s="3">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="J129" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K129" s="3">
-        <v>0</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
-        <v>129</v>
+        <v>1</v>
       </c>
       <c r="B130" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="E130" s="3">
+        <v>140</v>
       </c>
       <c r="F130" s="3">
         <v>3</v>
       </c>
       <c r="G130" s="3">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="H130" s="3">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="I130" s="3">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J130" s="3">
         <v>1</v>
       </c>
       <c r="K130" s="3">
-        <v>1.0780000000000001</v>
+        <v>1.893</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="B131" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="E131" s="3">
+        <v>140</v>
       </c>
       <c r="F131" s="3">
         <v>4</v>
       </c>
       <c r="G131" s="3">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="H131" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I131" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J131" s="3">
         <v>1</v>
       </c>
       <c r="K131" s="3">
-        <v>2.4049999999999998</v>
+        <v>3.052</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
-        <v>131</v>
+        <v>1</v>
       </c>
       <c r="B132" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="E132" s="3">
+        <v>140</v>
       </c>
       <c r="F132" s="3">
         <v>5</v>
       </c>
       <c r="G132" s="3">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H132" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I132" s="3">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J132" s="3">
         <v>1</v>
       </c>
       <c r="K132" s="3">
-        <v>1.625</v>
+        <v>3.9630000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="B133" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="E133" s="3">
+        <v>140</v>
       </c>
       <c r="F133" s="3">
         <v>6</v>
       </c>
       <c r="G133" s="3">
+        <v>40</v>
+      </c>
+      <c r="H133" s="3">
+        <v>15</v>
+      </c>
+      <c r="I133" s="3">
+        <v>15</v>
+      </c>
+      <c r="J133" s="3">
+        <v>1</v>
+      </c>
+      <c r="K133" s="3">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <v>1</v>
+      </c>
+      <c r="B134" s="3">
+        <v>21</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" s="3">
+        <v>280</v>
+      </c>
+      <c r="F134" s="3">
+        <v>1</v>
+      </c>
+      <c r="G134" s="3">
+        <v>30</v>
+      </c>
+      <c r="H134" s="3">
+        <v>20</v>
+      </c>
+      <c r="I134" s="3">
+        <v>15</v>
+      </c>
+      <c r="J134" s="3">
+        <v>1</v>
+      </c>
+      <c r="K134" s="3">
+        <v>2.5830000000000002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <v>1</v>
+      </c>
+      <c r="B135" s="3">
+        <v>21</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E135" s="3">
+        <v>280</v>
+      </c>
+      <c r="F135" s="3">
+        <v>2</v>
+      </c>
+      <c r="G135" s="3">
+        <v>35</v>
+      </c>
+      <c r="H135" s="3">
+        <v>30</v>
+      </c>
+      <c r="I135" s="3">
+        <v>20</v>
+      </c>
+      <c r="J135" s="3">
+        <v>1</v>
+      </c>
+      <c r="K135" s="3">
+        <v>2.867</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <v>1</v>
+      </c>
+      <c r="B136" s="3">
+        <v>21</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E136" s="3">
+        <v>280</v>
+      </c>
+      <c r="F136" s="3">
+        <v>3</v>
+      </c>
+      <c r="G136" s="3">
+        <v>40</v>
+      </c>
+      <c r="H136" s="3">
+        <v>30</v>
+      </c>
+      <c r="I136" s="3">
+        <v>20</v>
+      </c>
+      <c r="J136" s="3">
+        <v>1</v>
+      </c>
+      <c r="K136" s="3">
+        <v>1.764</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
+        <v>1</v>
+      </c>
+      <c r="B137" s="3">
+        <v>21</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" s="3">
+        <v>280</v>
+      </c>
+      <c r="F137" s="3">
+        <v>4</v>
+      </c>
+      <c r="G137" s="3">
+        <v>25</v>
+      </c>
+      <c r="H137" s="3">
+        <v>20</v>
+      </c>
+      <c r="I137" s="3">
+        <v>15</v>
+      </c>
+      <c r="J137" s="3">
+        <v>1</v>
+      </c>
+      <c r="K137" s="3">
+        <v>2.016</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
+        <v>1</v>
+      </c>
+      <c r="B138" s="3">
+        <v>21</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E138" s="3">
+        <v>280</v>
+      </c>
+      <c r="F138" s="3">
+        <v>5</v>
+      </c>
+      <c r="G138" s="3">
+        <v>25</v>
+      </c>
+      <c r="H138" s="3">
+        <v>30</v>
+      </c>
+      <c r="I138" s="3">
+        <v>20</v>
+      </c>
+      <c r="J138" s="3">
+        <v>1</v>
+      </c>
+      <c r="K138" s="3">
+        <v>2.9590000000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
+        <v>1</v>
+      </c>
+      <c r="B139" s="3">
+        <v>21</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E139" s="3">
+        <v>280</v>
+      </c>
+      <c r="F139" s="3">
+        <v>6</v>
+      </c>
+      <c r="G139" s="3">
+        <v>30</v>
+      </c>
+      <c r="H139" s="3">
+        <v>30</v>
+      </c>
+      <c r="I139" s="3">
+        <v>20</v>
+      </c>
+      <c r="J139" s="3">
+        <v>1</v>
+      </c>
+      <c r="K139" s="3">
+        <v>2.0030000000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <v>1</v>
+      </c>
+      <c r="B140" s="3">
+        <v>22</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E140" s="3">
+        <v>560</v>
+      </c>
+      <c r="F140" s="3">
+        <v>1</v>
+      </c>
+      <c r="G140" s="3">
+        <v>90</v>
+      </c>
+      <c r="H140" s="3">
+        <v>80</v>
+      </c>
+      <c r="I140" s="3">
+        <v>50</v>
+      </c>
+      <c r="J140" s="3">
+        <v>1</v>
+      </c>
+      <c r="K140" s="3">
+        <v>0.73599999999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
+        <v>1</v>
+      </c>
+      <c r="B141" s="3">
+        <v>22</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E141" s="3">
+        <v>560</v>
+      </c>
+      <c r="F141" s="3">
+        <v>2</v>
+      </c>
+      <c r="G141" s="3">
+        <v>100</v>
+      </c>
+      <c r="H141" s="3">
+        <v>100</v>
+      </c>
+      <c r="I141" s="3">
+        <v>100</v>
+      </c>
+      <c r="J141" s="3">
+        <v>0</v>
+      </c>
+      <c r="K141" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
+        <v>1</v>
+      </c>
+      <c r="B142" s="3">
+        <v>22</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E142" s="3">
+        <v>560</v>
+      </c>
+      <c r="F142" s="3">
+        <v>3</v>
+      </c>
+      <c r="G142" s="3">
+        <v>80</v>
+      </c>
+      <c r="H142" s="3">
+        <v>70</v>
+      </c>
+      <c r="I142" s="3">
+        <v>50</v>
+      </c>
+      <c r="J142" s="3">
+        <v>1</v>
+      </c>
+      <c r="K142" s="3">
+        <v>1.0780000000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
+        <v>1</v>
+      </c>
+      <c r="B143" s="3">
+        <v>22</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E143" s="3">
+        <v>560</v>
+      </c>
+      <c r="F143" s="3">
+        <v>4</v>
+      </c>
+      <c r="G143" s="3">
+        <v>70</v>
+      </c>
+      <c r="H143" s="3">
+        <v>50</v>
+      </c>
+      <c r="I143" s="3">
+        <v>30</v>
+      </c>
+      <c r="J143" s="3">
+        <v>1</v>
+      </c>
+      <c r="K143" s="3">
+        <v>2.4049999999999998</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
+        <v>1</v>
+      </c>
+      <c r="B144" s="3">
+        <v>22</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E144" s="3">
+        <v>560</v>
+      </c>
+      <c r="F144" s="3">
+        <v>5</v>
+      </c>
+      <c r="G144" s="3">
+        <v>60</v>
+      </c>
+      <c r="H144" s="3">
+        <v>30</v>
+      </c>
+      <c r="I144" s="3">
+        <v>25</v>
+      </c>
+      <c r="J144" s="3">
+        <v>1</v>
+      </c>
+      <c r="K144" s="3">
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
+        <v>1</v>
+      </c>
+      <c r="B145" s="3">
+        <v>22</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E145" s="3">
+        <v>560</v>
+      </c>
+      <c r="F145" s="3">
+        <v>6</v>
+      </c>
+      <c r="G145" s="3">
         <v>75</v>
       </c>
-      <c r="H133" s="3">
+      <c r="H145" s="3">
         <v>60</v>
       </c>
-      <c r="I133" s="3">
+      <c r="I145" s="3">
         <v>50</v>
       </c>
-      <c r="J133" s="3">
-        <v>1</v>
-      </c>
-      <c r="K133" s="3">
+      <c r="J145" s="3">
+        <v>1</v>
+      </c>
+      <c r="K145" s="3">
         <v>1.6459999999999999</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K133" xr:uid="{CA789018-4874-4129-A8DC-B9ED10D57DE1}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651BAFD5-C0A1-4FB2-AAB6-CF4257EC998E}">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="5">
-        <v>45205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="5">
-        <v>45209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="5">
-        <v>45219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="5">
-        <v>45229</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="5">
-        <v>45237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="5">
-        <v>45243</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="5">
-        <v>45250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="5">
-        <v>45250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="5">
-        <v>45250</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="5">
-        <v>45257</v>
-      </c>
-    </row>
-  </sheetData>
+  <autoFilter ref="A1:K145" xr:uid="{CA789018-4874-4129-A8DC-B9ED10D57DE1}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>